--- a/17-041_17-053_17-056_FuzzyCMeans.xlsx
+++ b/17-041_17-053_17-056_FuzzyCMeans.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\KK\Social-Media-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\KK\Social-Media-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E85F89-2790-40E3-81D2-2B508516B195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,33 +356,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3.5394387799999998</v>
       </c>
@@ -389,7 +394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3.5394387799999998</v>
       </c>
@@ -400,7 +405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>8.2989630600000002</v>
       </c>
@@ -411,7 +416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.3387149700000001</v>
       </c>
@@ -422,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3.5394387799999998</v>
       </c>
@@ -433,7 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8.2989630600000002</v>
       </c>
@@ -444,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8.2989630600000002</v>
       </c>
@@ -455,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.3387149700000001</v>
       </c>
@@ -466,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.3387149700000001</v>
       </c>
@@ -477,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.3387149700000001</v>
       </c>
@@ -488,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3.5394387799999998</v>
       </c>
@@ -499,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.3387149700000001</v>
       </c>
@@ -510,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.3387149700000001</v>
       </c>
@@ -521,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.3387149700000001</v>
       </c>
@@ -532,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.3387149700000001</v>
       </c>
@@ -543,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.3387149700000001</v>
       </c>
@@ -554,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1.3387149700000001</v>
       </c>
@@ -565,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1.3387149700000001</v>
       </c>
@@ -576,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3.5394387799999998</v>
       </c>
@@ -587,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.5394387799999998</v>
       </c>
@@ -598,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1.3387149700000001</v>
       </c>
@@ -609,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.5394387799999998</v>
       </c>
@@ -620,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8.2989630600000002</v>
       </c>
@@ -631,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3.5394387799999998</v>
       </c>
@@ -642,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>8.2989630600000002</v>
       </c>
@@ -653,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8.2989630600000002</v>
       </c>
@@ -664,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3.5394387799999998</v>
       </c>
@@ -675,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.3387149700000001</v>
       </c>
@@ -686,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>3.5394387799999998</v>
       </c>
@@ -697,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>3.5394387799999998</v>
       </c>
@@ -708,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3.5394387799999998</v>
       </c>
@@ -719,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3.5394387799999998</v>
       </c>
@@ -730,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3.5394387799999998</v>
       </c>
@@ -741,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3.5394387799999998</v>
       </c>
@@ -752,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>8.2989630600000002</v>
       </c>
@@ -763,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.3387149700000001</v>
       </c>
@@ -774,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8.2989630600000002</v>
       </c>
@@ -785,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.3387149700000001</v>
       </c>
@@ -796,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3.5394387799999998</v>
       </c>
@@ -807,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3.5394387799999998</v>
       </c>
@@ -818,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>8.2989630600000002</v>
       </c>
@@ -829,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3.5394387799999998</v>
       </c>
@@ -840,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3.5394387799999998</v>
       </c>
@@ -851,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3.5394387799999998</v>
       </c>
@@ -862,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1.3387149700000001</v>
       </c>
@@ -873,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3.5394387799999998</v>
       </c>
@@ -884,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>8.2989630600000002</v>
       </c>
@@ -895,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3.5394387799999998</v>
       </c>
@@ -906,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>8.2989630600000002</v>
       </c>
@@ -917,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.5394387799999998</v>
       </c>
@@ -928,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1.3387149700000001</v>
       </c>
